--- a/user_guide/data/Pooled_Funds_Task4_VE_Estimation.xlsx
+++ b/user_guide/data/Pooled_Funds_Task4_VE_Estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\VisionEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F83BE8-1250-4DF7-8483-DDB5CE482763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C0A460-BCE3-4029-AB96-79FF57EE0D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC5E4B6D-513C-486A-8409-7B34145AD233}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC5E4B6D-513C-486A-8409-7B34145AD233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="655">
   <si>
     <t>Summary of module estimation procedures</t>
   </si>
@@ -653,9 +653,6 @@
     <t>This module creates a vehicle table and populates it with household ID and geography fields.</t>
   </si>
   <si>
-    <t>Creates vehicle table populated with household ID and geography</t>
-  </si>
-  <si>
     <t>inst/module_docs/CreateVehicleTable.md</t>
   </si>
   <si>
@@ -671,12 +668,6 @@
     <t>This module adjusts household vehicle ownership based on a comparison of the cost of owning a vehicle per mile of travel compared to the cost per mile of using a car service where the level of service is high. The determination of whether car services are substituted for ownership also depends on input assumptions regarding the average likelihood that an owner would substitute car services for a household vehicle.</t>
   </si>
   <si>
-    <t>Adjusts household vehicle ownership based on a comparison of the cost of owning a vehicle per mile of travel compared to the cost per mile of using a car service where the level of service is high</t>
-  </si>
-  <si>
-    <t>Deterministic (substitutes random portion of cases where car service is cheaper)</t>
-  </si>
-  <si>
     <t>inst/module_docs/AdjustVehicleOwnership.md</t>
   </si>
   <si>
@@ -686,9 +677,6 @@
     <t>data/AdjustVehicleOwnershipSpecifications.rda</t>
   </si>
   <si>
-    <t>User input from csv</t>
-  </si>
-  <si>
     <t>VELandUse</t>
   </si>
   <si>
@@ -701,18 +689,12 @@
     <t>This module reads in user specified data and assigns car service availability in Bzones.</t>
   </si>
   <si>
-    <t>No Model</t>
-  </si>
-  <si>
     <t>inst/module_docs/AssignCarSvcAvailability.md</t>
   </si>
   <si>
     <t>R/AssignCarSvcAvailability.R</t>
   </si>
   <si>
-    <t>bzone_carsvc_availability.csv</t>
-  </si>
-  <si>
     <t>data/AssignCarSvcAvailabilitySpecifications.rda</t>
   </si>
   <si>
@@ -723,9 +705,6 @@
   </si>
   <si>
     <t>Proportional VMT Reduction Estimation</t>
-  </si>
-  <si>
-    <t>NHTS 2001 and default user specified from CSV</t>
   </si>
   <si>
     <t>Proportions</t>
@@ -754,18 +733,12 @@
     <t>This module assigns households to development types: Urban (located within an urbanized area boundary) and Rural (located outside of an urbanized area boundary).</t>
   </si>
   <si>
-    <t>Proportional assignment (Urban or Rural)</t>
-  </si>
-  <si>
     <t>inst/module_docs/AssignDevTypes.md</t>
   </si>
   <si>
     <t>R/AssignDevTypes.R</t>
   </si>
   <si>
-    <t>bzone_urban_du_proportions.csv</t>
-  </si>
-  <si>
     <t>data/AssignDevTypesSpecifications.rda</t>
   </si>
   <si>
@@ -775,18 +748,12 @@
     <t>This module assigns households to location types: Urban (located within an urbanized area boundary), Town (located in a smaller urban area that does not have enough population to qualify as an urbanized area), and Rural (located in an area characterized by low density dispersed development).</t>
   </si>
   <si>
-    <t>Proportional assignment (Urban, Town, Rural)</t>
-  </si>
-  <si>
     <t>inst/module_docs/AssignLocTypes.md</t>
   </si>
   <si>
     <t>R/AssignLocTypes.R</t>
   </si>
   <si>
-    <t>bzone_urban-town_du_proportions.csv</t>
-  </si>
-  <si>
     <t>data/AssignLocTypesSpecifications.rda</t>
   </si>
   <si>
@@ -805,9 +772,6 @@
     <t>R/AssignParkingRestrictions.R</t>
   </si>
   <si>
-    <t>bzone_parking.csv</t>
-  </si>
-  <si>
     <t>data/AssignParkingRestrictionsSpecifications.rda</t>
   </si>
   <si>
@@ -817,22 +781,12 @@
     <t>This module calculates several 4D measures by Bzone including density, diversity (i.e. mixing of land uses), transportation network design, and destination accessibility</t>
   </si>
   <si>
-    <t>Calculated entropy (diversity) and harmonic mean (accessibility) measures</t>
-  </si>
-  <si>
-    <t>Closed formula</t>
-  </si>
-  <si>
     <t>inst/module_docs/Calculate4DMeasures.md</t>
   </si>
   <si>
     <t>R/Calculate4DMeasures.R</t>
   </si>
   <si>
-    <t>bzone_unprotected_area.csv
-bzone_network_design.csv</t>
-  </si>
-  <si>
     <t>data/Calculate4DMeasuresSpecifications.rda</t>
   </si>
   <si>
@@ -851,10 +805,6 @@
     <t>R/CalculateUrbanMixMeasure.R</t>
   </si>
   <si>
-    <t>VE2001NHTS::Hh_df
-bzone_urban-mixed-use_prop.csv</t>
-  </si>
-  <si>
     <t>data/CalculateUrbanMixMeasureSpecifications.rda</t>
   </si>
   <si>
@@ -864,22 +814,12 @@
     <t>This module places employment in Bzones based on input assumptions of employment by type and Bzone</t>
   </si>
   <si>
-    <t>Iterative Proportional Fitting</t>
-  </si>
-  <si>
-    <t>IPF</t>
-  </si>
-  <si>
     <t>inst/module_docs/LocateEmployment.md</t>
   </si>
   <si>
     <t>R/LocateEmployment.R</t>
   </si>
   <si>
-    <t>bzone_employment.csv
-bzone_lat_lon.csv</t>
-  </si>
-  <si>
     <t>data/LocateEmploymentSpecifications.rda</t>
   </si>
   <si>
@@ -901,11 +841,6 @@
     <t>R/PredictHousing.R</t>
   </si>
   <si>
-    <t>VESimHouseholds::Hh_df
-bzone_hh_inc_qrtl_prop.csv
-bzone_dwelling_units.csv</t>
-  </si>
-  <si>
     <t>data/PredictHousingSpecifications.rda</t>
   </si>
   <si>
@@ -915,19 +850,9 @@
     <t>This module calculates place types for households and firms for the base year.</t>
   </si>
   <si>
-    <t>Random allocation based on linear model</t>
-  </si>
-  <si>
-    <t>Linear</t>
-  </si>
-  <si>
     <t>R/CalculateBasePlaceTypes.R</t>
   </si>
   <si>
-    <t>VELandUse::HhAllocationModelCoeff_df
-bzone_pop_emp_prop.csv</t>
-  </si>
-  <si>
     <t>data/CalculateBasePlaceTypesSpecifications.rda</t>
   </si>
   <si>
@@ -938,9 +863,6 @@
   </si>
   <si>
     <t>R/CalculateFuturePlaceTypes.R</t>
-  </si>
-  <si>
-    <t>VELandUse::HhAllocationModelCoeff_df</t>
   </si>
   <si>
     <t>data/CalculateFuturePlaceTypesSpecifications.rda</t>
@@ -2036,10 +1958,6 @@
     <t xml:space="preserve">This module identifies parking restrictions and prices affecting households at their residences, workplaces, and other places they are likely to visit in the urban area. </t>
   </si>
   <si>
-    <t>marea_parking-avail_by_area-type.csv
-marea_parking-cost_by_area-type.csv</t>
-  </si>
-  <si>
     <t>This module estimates all the models for synthesizing Bzones and their land use attributes as a function of Azone characteristics as well as data derived from the US Environmental Protection Agency's Smart Location Database (SLD) augmented with US Census housing and household income data, and data from the National Transit Database.</t>
   </si>
   <si>
@@ -2071,9 +1989,6 @@
   </si>
   <si>
     <t>R/CreateSimBzones.R</t>
-  </si>
-  <si>
-    <t>VESimLandUse::SimBzone_ls</t>
   </si>
   <si>
     <t>data/SimBzone_ls.rda
@@ -2083,50 +1998,12 @@
     <t>Initialization and data check</t>
   </si>
   <si>
-    <r>
-      <t>VESimLandUseData::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>SimLandUseData_df
-azone_wkr_loc_type_prop.csv
-azone_wkr_loc_type_prop.csv
-azone_hh_loc_type_prop.csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-marea_uza_profile_names.csv
-azone_loc_type_land_area.csv
-azone_loc_type_land_area.csv
-azone_gq_pop-prop_by_area-type.csv
-azone_hh_pop_by_age.csv
-azone_hhsize_targets.csv
-azone_gq_pop_by_age.csv
-azone_relative_employment.csv</t>
-    </r>
-  </si>
-  <si>
     <t>inst/module_docs/Simulate4DMeasures.md</t>
   </si>
   <si>
     <t>R/Simulate4DMeasures.R</t>
   </si>
   <si>
-    <t>marea_d3bpo4_adj.csv
-bzone_network_design.csv</t>
-  </si>
-  <si>
     <t>This module calculates several 4D measures by SimBzone including density, diversity (i.e. mixing of land uses), and pedestrian-orientedn transportation network design.</t>
   </si>
   <si>
@@ -2146,9 +2023,6 @@
   </si>
   <si>
     <t>inst/module_docs/SimulateEmployment.md</t>
-  </si>
-  <si>
-    <t>Workers are assigned to Bzone job locations using simple rules</t>
   </si>
   <si>
     <t>This module assign workers SimBzone work locations. A worker table is created which identifies a unique worker ID, the household ID the worker is a part of, and the SimBzone, Azone, and Marea of the worker job location.</t>
@@ -2262,27 +2136,12 @@
     <t>data/AssignRoadMilesSpecifications.rda</t>
   </si>
   <si>
-    <t>data/marea_lane_miles.csv</t>
-  </si>
-  <si>
     <t>R/AssignTransitService.R</t>
   </si>
   <si>
     <t>inst/module_docs/AssignTransitService.md</t>
   </si>
   <si>
-    <t>2015_Agency_information.csv
-2015_Service.csv
-marea_transit_service.csv
-bzone_transit_service.csv</t>
-  </si>
-  <si>
-    <t>data/BusEquivalents_df.rda
-data/VehMiFactors_df.rda
-data/UZABusEqRevMile_df.rda
-data/AssignTransitServiceSpecifications.rda</t>
-  </si>
-  <si>
     <t>VisionEval module for roadway speeds, delay, and congestion costs using run year data</t>
   </si>
   <si>
@@ -2310,12 +2169,6 @@
     <t>Speed estimated from demand vs lane-mile supply, adjusted by intervention policy</t>
   </si>
   <si>
-    <t>azone_its_prop.csv</t>
-  </si>
-  <si>
-    <t>Delay-based</t>
-  </si>
-  <si>
     <t>R/CalculateCongestionBase.R</t>
   </si>
   <si>
@@ -2349,26 +2202,189 @@
     <t>data/TdmModel_ls.rda</t>
   </si>
   <si>
-    <t>PUMS</t>
-  </si>
-  <si>
     <t>US Census Housing and Household Income Data, Smart Location Database, National Transit Database</t>
   </si>
   <si>
-    <t>VELandUseData</t>
-  </si>
-  <si>
     <t>This module simulates various land use characteristics</t>
   </si>
   <si>
     <t>Processed Dataset</t>
+  </si>
+  <si>
+    <t>data/DriverModel_ls.rda</t>
+  </si>
+  <si>
+    <t>data/VehicleAgeModel_ls.rda</t>
+  </si>
+  <si>
+    <t>data/AutoOwnModels_ls.rda</t>
+  </si>
+  <si>
+    <t>data/VehicleTypeModel_ls.rda</t>
+  </si>
+  <si>
+    <t>data/VehOwnCost_ls.rda</t>
+  </si>
+  <si>
+    <t>This module has no estimated model parameters. Creates vehicle table populated with household ID and geography</t>
+  </si>
+  <si>
+    <t>This module has no estimated model parameters. Function appplied by this model is deterministic, substitutes random portion of cases where car service is cheaper</t>
+  </si>
+  <si>
+    <t>This module has no estimated model parameters. Function appplied by this model is deterministic.</t>
+  </si>
+  <si>
+    <t>NHTS 2001 and default data specified in CSV</t>
+  </si>
+  <si>
+    <t>This module has no estimated model parameters. Function appplies and IPF algorithm</t>
+  </si>
+  <si>
+    <t>PUMS (processed in VESimHouseholds)</t>
+  </si>
+  <si>
+    <t>VESimHouseholds::Hh_df</t>
+  </si>
+  <si>
+    <t>Sources estimation from Census PUMS prepared in the VESimHousehold package</t>
+  </si>
+  <si>
+    <t>Multinomial Logit</t>
+  </si>
+  <si>
+    <t>MNL model of household allocation to place types based on household structures and income</t>
+  </si>
+  <si>
+    <t>Data file in data-raw/HhAllocationModelCoeff.rda</t>
+  </si>
+  <si>
+    <t>data-raw/HhAllocationModelCoeff.rda</t>
+  </si>
+  <si>
+    <t>data/HhAllocationModelCoeff_df.rda</t>
+  </si>
+  <si>
+    <t>This module has no estimated model parameters, model was estimated in the development of RPAT and transferred as a model object saved in data-raw.</t>
+  </si>
+  <si>
+    <t>Imports from VELandUse</t>
+  </si>
+  <si>
+    <t>This module has no estimated model parameters. It loads the model estimated in the VELandUse module</t>
+  </si>
+  <si>
+    <t>This modules estimates a system of models to synthesize Bzones and their attributes as a funciton of Azone characteristics and other data in the VESimLandUseData pacakge</t>
+  </si>
+  <si>
+    <t>This module has no estimated model parameters. Applies the models estimated in the  CreateSimBzonesModels step</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>data/SimulateHousingSpecifications.rda</t>
+  </si>
+  <si>
+    <t>Sources models estimated in the VELandUse module that were estimated using PUMS data processed in the VESimHouseholds package</t>
+  </si>
+  <si>
+    <r>
+      <t>VELandUse::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TdmModel_ls</t>
+    </r>
+  </si>
+  <si>
+    <t>This module processes data for use in the VESimLandUse module</t>
+  </si>
+  <si>
+    <t>VESimTransportSupply</t>
+  </si>
+  <si>
+    <t>This module assigns freeway and arterial lane-miles to metropolitan areas (Marea) and calculates freeway lane-miles per capita.</t>
+  </si>
+  <si>
+    <t>R/SimulateRoadMiles.R</t>
+  </si>
+  <si>
+    <t>data/SimulateRoadMilesSpecifications.rda</t>
+  </si>
+  <si>
+    <t>This package contains modules that work in the VisionEval framework to simulate transportation supply characteristics including roadway supply and public transit supply.</t>
+  </si>
+  <si>
+    <t>Models estimated in the VESimLandUse modules</t>
+  </si>
+  <si>
+    <t>R/SimulateTransitService.R</t>
+  </si>
+  <si>
+    <r>
+      <t>VESimLandUse::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SimBzone_ls</t>
+    </r>
+  </si>
+  <si>
+    <t>data/D4cModels_ls.rda</t>
+  </si>
+  <si>
+    <t>data/SimulateTransitServiceSpecifications.rda</t>
+  </si>
+  <si>
+    <t>Sources models estimated in the VELandUse module.</t>
+  </si>
+  <si>
+    <t>FTA NTD</t>
+  </si>
+  <si>
+    <t>Factors to convert revenue mules, develop bus equivalency factors, compare vehicle miles by mode</t>
+  </si>
+  <si>
+    <t>Factors</t>
+  </si>
+  <si>
+    <t>inst/extdata/2015_Agency_information.csv, inst/extdata/2015_Service.csv</t>
+  </si>
+  <si>
+    <t>data/BusEquivalents_df.rda, data/VehMiFactors_df.rda, data/UZABusEqRevMile_df.rda</t>
+  </si>
+  <si>
+    <t>data/AssignTransitServiceSpecifications.rda</t>
+  </si>
+  <si>
+    <t>The module develops factors based on FTA NTD data</t>
+  </si>
+  <si>
+    <t>inst/extdata/CongModel_ls.RData</t>
+  </si>
+  <si>
+    <t>Data files in inst/extdata</t>
+  </si>
+  <si>
+    <t>This module has no estimated model parameters, derived from RPAT scripts. Original source of models is GreenSTEP models.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2427,18 +2443,6 @@
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF24292F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <i/>
@@ -2787,11 +2791,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86681A09-7DDA-48A9-8289-28339EDF9055}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2890,7 +2894,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -3685,7 +3689,7 @@
         <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
         <v>59</v>
@@ -3729,7 +3733,7 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
         <v>59</v>
@@ -3773,7 +3777,7 @@
         <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>59</v>
@@ -4098,6 +4102,9 @@
       <c r="K33" t="s">
         <v>47</v>
       </c>
+      <c r="L33" t="s">
+        <v>606</v>
+      </c>
       <c r="M33" t="s">
         <v>139</v>
       </c>
@@ -4139,6 +4146,9 @@
       <c r="K34" t="s">
         <v>47</v>
       </c>
+      <c r="L34" t="s">
+        <v>606</v>
+      </c>
       <c r="M34" t="s">
         <v>139</v>
       </c>
@@ -4180,6 +4190,9 @@
       <c r="K35" t="s">
         <v>147</v>
       </c>
+      <c r="L35" t="s">
+        <v>607</v>
+      </c>
       <c r="M35" t="s">
         <v>148</v>
       </c>
@@ -4221,6 +4234,9 @@
       <c r="K36" t="s">
         <v>47</v>
       </c>
+      <c r="L36" t="s">
+        <v>608</v>
+      </c>
       <c r="M36" t="s">
         <v>154</v>
       </c>
@@ -4262,6 +4278,9 @@
       <c r="K37" t="s">
         <v>47</v>
       </c>
+      <c r="L37" t="s">
+        <v>608</v>
+      </c>
       <c r="M37" t="s">
         <v>154</v>
       </c>
@@ -4303,6 +4322,9 @@
       <c r="K38" t="s">
         <v>161</v>
       </c>
+      <c r="L38" t="s">
+        <v>609</v>
+      </c>
       <c r="M38" t="s">
         <v>162</v>
       </c>
@@ -4344,6 +4366,9 @@
       <c r="K39" t="s">
         <v>171</v>
       </c>
+      <c r="L39" t="s">
+        <v>610</v>
+      </c>
       <c r="M39" t="s">
         <v>172</v>
       </c>
@@ -4365,28 +4390,34 @@
         <v>175</v>
       </c>
       <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s">
         <v>176</v>
       </c>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" t="s">
         <v>177</v>
       </c>
-      <c r="I40" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" t="s">
         <v>178</v>
       </c>
-      <c r="K40" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" t="s">
-        <v>179</v>
+      <c r="N40" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4397,303 +4428,321 @@
         <v>132</v>
       </c>
       <c r="C41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
         <v>180</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s">
         <v>181</v>
       </c>
-      <c r="E41" t="s">
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" t="s">
         <v>182</v>
       </c>
-      <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
         <v>183</v>
       </c>
-      <c r="H41" t="s">
-        <v>184</v>
-      </c>
-      <c r="I41" t="s">
-        <v>169</v>
-      </c>
-      <c r="J41" t="s">
-        <v>185</v>
-      </c>
-      <c r="K41" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" t="s">
-        <v>186</v>
-      </c>
       <c r="N41" t="s">
-        <v>187</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s">
         <v>188</v>
       </c>
-      <c r="B42" t="s">
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" t="s">
         <v>189</v>
       </c>
-      <c r="C42" t="s">
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
         <v>190</v>
       </c>
-      <c r="D42" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" t="s">
-        <v>192</v>
-      </c>
-      <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" t="s">
-        <v>193</v>
-      </c>
-      <c r="I42" t="s">
-        <v>169</v>
-      </c>
-      <c r="J42" t="s">
-        <v>194</v>
-      </c>
-      <c r="K42" t="s">
-        <v>195</v>
-      </c>
-      <c r="M42" t="s">
-        <v>196</v>
-      </c>
       <c r="N42" t="s">
-        <v>187</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F43" t="s">
-        <v>200</v>
+        <v>614</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H43" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I43" t="s">
         <v>169</v>
       </c>
       <c r="J43" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L43" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="M43" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="N43" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
         <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I44" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K44" t="s">
-        <v>212</v>
+        <v>23</v>
+      </c>
+      <c r="L44" t="s">
+        <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="N44" t="s">
-        <v>187</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
         <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I45" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="K45" t="s">
-        <v>219</v>
+        <v>23</v>
+      </c>
+      <c r="L45" t="s">
+        <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="N45" t="s">
-        <v>187</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I46" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s">
-        <v>226</v>
+        <v>23</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="N46" t="s">
-        <v>187</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I47" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="K47" t="s">
-        <v>234</v>
+        <v>23</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N47" t="s">
-        <v>187</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -4702,253 +4751,262 @@
         <v>136</v>
       </c>
       <c r="H48" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="I48" t="s">
         <v>169</v>
       </c>
       <c r="J48" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K48" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="M48" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="N48" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E49" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
         <v>23</v>
       </c>
       <c r="G49" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="I49" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="K49" t="s">
-        <v>249</v>
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="N49" t="s">
-        <v>187</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F50" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="G50" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="I50" t="s">
         <v>169</v>
       </c>
       <c r="J50" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="K50" t="s">
-        <v>257</v>
+        <v>617</v>
       </c>
       <c r="L50" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="M50" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="N50" t="s">
-        <v>187</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
-        <v>261</v>
+        <v>620</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>262</v>
+        <v>619</v>
       </c>
       <c r="H51" t="s">
         <v>26</v>
       </c>
       <c r="I51" t="s">
-        <v>169</v>
+        <v>621</v>
       </c>
       <c r="J51" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="K51" t="s">
-        <v>264</v>
+        <v>622</v>
+      </c>
+      <c r="L51" t="s">
+        <v>623</v>
       </c>
       <c r="M51" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="N51" t="s">
-        <v>187</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C52" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D52" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
+        <v>620</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>262</v>
+        <v>619</v>
       </c>
       <c r="H52" t="s">
         <v>26</v>
       </c>
       <c r="I52" t="s">
-        <v>169</v>
+        <v>621</v>
       </c>
       <c r="J52" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="K52" t="s">
-        <v>269</v>
+        <v>622</v>
+      </c>
+      <c r="L52" t="s">
+        <v>623</v>
       </c>
       <c r="M52" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="N52" t="s">
-        <v>187</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="H53" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="I53" t="s">
         <v>169</v>
       </c>
       <c r="J53" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="K53" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="L53" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="M53" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="N53" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D54" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="F54" t="s">
         <v>23</v>
@@ -4957,13 +5015,13 @@
         <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="K54" t="s">
         <v>23</v>
@@ -4972,7 +5030,7 @@
         <v>23</v>
       </c>
       <c r="M54" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="N54" t="s">
         <v>38</v>
@@ -4980,19 +5038,19 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C55" t="s">
         <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="E55" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="F55" t="s">
         <v>23</v>
@@ -5001,7 +5059,7 @@
         <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
@@ -5016,7 +5074,7 @@
         <v>23</v>
       </c>
       <c r="M55" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="N55" t="s">
         <v>38</v>
@@ -5024,31 +5082,31 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C56" t="s">
         <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G56" t="s">
         <v>125</v>
       </c>
       <c r="H56" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="I56" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="J56" t="s">
         <v>127</v>
@@ -5057,27 +5115,27 @@
         <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="M56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="N56" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D57" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
         <v>23</v>
@@ -5089,13 +5147,13 @@
         <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="I57" t="s">
         <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="K57" t="s">
         <v>23</v>
@@ -5104,633 +5162,687 @@
         <v>23</v>
       </c>
       <c r="M57" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="N57" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="G58" t="s">
         <v>125</v>
       </c>
       <c r="H58" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="I58" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J58" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="K58" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="L58" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="M58" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="N58" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C59" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="D59" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="E59" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="F59" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="G59" t="s">
         <v>59</v>
       </c>
       <c r="H59" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="I59" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J59" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="K59" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="L59" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="M59" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="N59" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15">
       <c r="A60" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B60" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="D60" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="E60" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="F60" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="G60" t="s">
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="I60" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J60" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="K60" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="L60" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="M60" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="N60" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15">
       <c r="A61" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="D61" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="E61" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="F61" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="G61" t="s">
         <v>125</v>
       </c>
       <c r="H61" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="I61" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J61" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="K61" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="L61" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="M61" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="N61" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B62" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>524</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" t="s">
+        <v>188</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" t="s">
+        <v>189</v>
+      </c>
+      <c r="K62" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" t="s">
         <v>190</v>
       </c>
-      <c r="D62" t="s">
-        <v>548</v>
-      </c>
-      <c r="E62" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" t="s">
-        <v>193</v>
-      </c>
-      <c r="I62" t="s">
-        <v>169</v>
-      </c>
-      <c r="J62" t="s">
-        <v>194</v>
-      </c>
-      <c r="K62" t="s">
-        <v>195</v>
-      </c>
-      <c r="M62" t="s">
-        <v>196</v>
-      </c>
       <c r="N62" t="s">
-        <v>187</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B63" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H63" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I63" t="s">
-        <v>169</v>
+        <v>625</v>
       </c>
       <c r="J63" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K63" t="s">
-        <v>204</v>
+        <v>632</v>
+      </c>
+      <c r="L63" t="s">
+        <v>23</v>
       </c>
       <c r="M63" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="N63" t="s">
-        <v>206</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B64" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D64" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="E64" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F64" t="s">
         <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I64" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K64" t="s">
-        <v>554</v>
+        <v>23</v>
+      </c>
+      <c r="L64" t="s">
+        <v>23</v>
       </c>
       <c r="M64" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="N64" t="s">
-        <v>187</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C65" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D65" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="E65" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="F65" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="G65" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="H65" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="I65" t="s">
         <v>169</v>
       </c>
       <c r="J65" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="K65" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="L65" t="s">
-        <v>567</v>
+        <v>541</v>
+      </c>
+      <c r="M65" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C66" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D66" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="E66" t="s">
-        <v>563</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>341</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="H66" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="I66" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="K66" t="s">
-        <v>566</v>
+        <v>23</v>
+      </c>
+      <c r="L66" t="s">
+        <v>23</v>
       </c>
       <c r="M66" t="s">
-        <v>561</v>
+        <v>536</v>
+      </c>
+      <c r="N66" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C67" t="s">
         <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="E67" t="s">
         <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="G67" t="s">
         <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="I67" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
         <v>120</v>
       </c>
       <c r="K67" t="s">
-        <v>569</v>
+        <v>23</v>
       </c>
       <c r="L67" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="M67" t="s">
         <v>121</v>
       </c>
+      <c r="N67" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B68" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D68" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
         <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="H68" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="I68" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="K68" t="s">
-        <v>572</v>
+        <v>23</v>
+      </c>
+      <c r="L68" t="s">
+        <v>23</v>
       </c>
       <c r="M68" t="s">
-        <v>574</v>
+        <v>546</v>
+      </c>
+      <c r="N68" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B69" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C69" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D69" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="E69" t="s">
-        <v>580</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
         <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="I69" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="K69" t="s">
         <v>23</v>
       </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
       <c r="M69" t="s">
-        <v>582</v>
+        <v>553</v>
+      </c>
+      <c r="N69" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="19.2">
       <c r="A70" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B70" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C70" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D70" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="E70" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="F70" t="s">
-        <v>188</v>
+        <v>616</v>
       </c>
       <c r="G70" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="H70" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="I70" t="s">
-        <v>169</v>
+        <v>625</v>
       </c>
       <c r="J70" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="K70" t="s">
-        <v>586</v>
+        <v>557</v>
+      </c>
+      <c r="L70" t="s">
+        <v>600</v>
+      </c>
+      <c r="M70" t="s">
+        <v>630</v>
+      </c>
+      <c r="N70" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B71" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="C71" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D71" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="E71" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="F71" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
         <v>136</v>
       </c>
       <c r="H71" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="I71" t="s">
-        <v>169</v>
+        <v>625</v>
       </c>
       <c r="J71" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="K71" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="L71" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="M71" t="s">
-        <v>592</v>
+        <v>563</v>
+      </c>
+      <c r="N71" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="B72" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="C72" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="D72" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="E72" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="F72" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="G72" t="s">
         <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="I72" t="s">
         <v>169</v>
       </c>
       <c r="J72" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="K72" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="L72" t="s">
-        <v>601</v>
+        <v>572</v>
+      </c>
+      <c r="M72" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>342</v>
+        <v>634</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>638</v>
       </c>
       <c r="C73" t="s">
-        <v>344</v>
+        <v>573</v>
       </c>
       <c r="D73" t="s">
-        <v>345</v>
+        <v>635</v>
       </c>
       <c r="E73" t="s">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
         <v>23</v>
@@ -5745,7 +5857,7 @@
         <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>346</v>
+        <v>636</v>
       </c>
       <c r="K73" t="s">
         <v>23</v>
@@ -5754,7 +5866,7 @@
         <v>23</v>
       </c>
       <c r="M73" t="s">
-        <v>347</v>
+        <v>637</v>
       </c>
       <c r="N73" t="s">
         <v>38</v>
@@ -5762,1444 +5874,1471 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>342</v>
+        <v>634</v>
       </c>
       <c r="B74" t="s">
-        <v>343</v>
+        <v>638</v>
       </c>
       <c r="C74" t="s">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="D74" t="s">
-        <v>349</v>
+        <v>576</v>
       </c>
       <c r="E74" t="s">
-        <v>285</v>
+        <v>639</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>317</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>532</v>
       </c>
       <c r="H74" t="s">
         <v>26</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>625</v>
       </c>
       <c r="J74" t="s">
-        <v>350</v>
+        <v>640</v>
       </c>
       <c r="K74" t="s">
-        <v>23</v>
+        <v>641</v>
       </c>
       <c r="L74" t="s">
-        <v>23</v>
+        <v>642</v>
       </c>
       <c r="M74" t="s">
-        <v>351</v>
+        <v>643</v>
       </c>
       <c r="N74" t="s">
-        <v>38</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B75" t="s">
-        <v>606</v>
+        <v>319</v>
       </c>
       <c r="C75" t="s">
-        <v>602</v>
+        <v>320</v>
       </c>
       <c r="D75" t="s">
-        <v>604</v>
+        <v>321</v>
       </c>
       <c r="E75" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="F75" t="s">
         <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>563</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="I75" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>608</v>
+        <v>322</v>
       </c>
       <c r="K75" t="s">
-        <v>610</v>
+        <v>23</v>
+      </c>
+      <c r="L75" t="s">
+        <v>23</v>
       </c>
       <c r="M75" t="s">
-        <v>609</v>
+        <v>323</v>
+      </c>
+      <c r="N75" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B76" t="s">
-        <v>606</v>
+        <v>319</v>
       </c>
       <c r="C76" t="s">
-        <v>603</v>
+        <v>324</v>
       </c>
       <c r="D76" t="s">
-        <v>605</v>
+        <v>325</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="F76" t="s">
         <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>563</v>
+        <v>23</v>
       </c>
       <c r="H76" t="s">
-        <v>612</v>
+        <v>26</v>
       </c>
       <c r="I76" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>611</v>
+        <v>326</v>
       </c>
       <c r="K76" t="s">
-        <v>613</v>
+        <v>23</v>
+      </c>
+      <c r="L76" t="s">
+        <v>23</v>
       </c>
       <c r="M76" t="s">
-        <v>614</v>
+        <v>327</v>
+      </c>
+      <c r="N76" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="B77" t="s">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="C77" t="s">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="D77" t="s">
-        <v>620</v>
+        <v>575</v>
       </c>
       <c r="E77" t="s">
-        <v>622</v>
+        <v>261</v>
       </c>
       <c r="F77" t="s">
         <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>625</v>
+        <v>23</v>
       </c>
       <c r="H77" t="s">
-        <v>26</v>
+        <v>578</v>
       </c>
       <c r="I77" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="J77" t="s">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="K77" t="s">
-        <v>624</v>
+        <v>23</v>
       </c>
       <c r="L77" t="s">
-        <v>629</v>
+        <v>23</v>
       </c>
       <c r="M77" t="s">
-        <v>630</v>
+        <v>580</v>
+      </c>
+      <c r="N77" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="B78" t="s">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="C78" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="D78" t="s">
-        <v>621</v>
+        <v>576</v>
       </c>
       <c r="E78" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>645</v>
       </c>
       <c r="G78" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="H78" t="s">
-        <v>26</v>
+        <v>582</v>
       </c>
       <c r="I78" t="s">
         <v>169</v>
       </c>
       <c r="J78" t="s">
-        <v>627</v>
+        <v>581</v>
       </c>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>648</v>
+      </c>
+      <c r="L78" t="s">
+        <v>649</v>
       </c>
       <c r="M78" t="s">
-        <v>631</v>
+        <v>650</v>
+      </c>
+      <c r="N78" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="B79" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="C79" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="D79" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="E79" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>447</v>
       </c>
       <c r="G79" t="s">
-        <v>625</v>
+        <v>252</v>
       </c>
       <c r="H79" t="s">
         <v>26</v>
       </c>
       <c r="I79" t="s">
-        <v>169</v>
+        <v>653</v>
       </c>
       <c r="J79" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="K79" t="s">
-        <v>23</v>
+        <v>652</v>
+      </c>
+      <c r="L79" t="s">
+        <v>595</v>
       </c>
       <c r="M79" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="15">
+        <v>596</v>
+      </c>
+      <c r="N79" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>583</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>585</v>
       </c>
       <c r="D80" t="s">
-        <v>356</v>
+        <v>589</v>
       </c>
       <c r="E80" t="s">
-        <v>357</v>
+        <v>590</v>
       </c>
       <c r="F80" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="H80" t="s">
-        <v>359</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
-        <v>360</v>
+        <v>653</v>
       </c>
       <c r="J80" t="s">
-        <v>361</v>
+        <v>593</v>
       </c>
       <c r="K80" t="s">
-        <v>362</v>
+        <v>652</v>
       </c>
       <c r="L80" t="s">
-        <v>363</v>
+        <v>23</v>
       </c>
       <c r="M80" t="s">
-        <v>49</v>
+        <v>597</v>
       </c>
       <c r="N80" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="15">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="B81" t="s">
-        <v>355</v>
+        <v>583</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>586</v>
       </c>
       <c r="D81" t="s">
-        <v>356</v>
+        <v>587</v>
       </c>
       <c r="E81" t="s">
-        <v>365</v>
+        <v>591</v>
       </c>
       <c r="F81" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="H81" t="s">
-        <v>359</v>
+        <v>26</v>
       </c>
       <c r="I81" t="s">
-        <v>360</v>
+        <v>653</v>
       </c>
       <c r="J81" t="s">
-        <v>361</v>
+        <v>594</v>
       </c>
       <c r="K81" t="s">
-        <v>362</v>
+        <v>652</v>
       </c>
       <c r="L81" t="s">
-        <v>363</v>
+        <v>23</v>
       </c>
       <c r="M81" t="s">
-        <v>49</v>
+        <v>598</v>
       </c>
       <c r="N81" t="s">
-        <v>364</v>
+        <v>654</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15">
       <c r="A82" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B82" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
       </c>
       <c r="D82" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E82" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="F82" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G82" t="s">
         <v>43</v>
       </c>
       <c r="H82" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I82" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J82" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="K82" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L82" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="M82" t="s">
         <v>49</v>
       </c>
       <c r="N82" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E83" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="F83" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G83" t="s">
         <v>43</v>
       </c>
       <c r="H83" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I83" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J83" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="K83" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L83" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="M83" t="s">
         <v>49</v>
       </c>
       <c r="N83" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="15">
       <c r="A84" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B84" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
       </c>
       <c r="D84" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E84" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="F84" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G84" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I84" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J84" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="K84" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L84" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="M84" t="s">
         <v>49</v>
       </c>
       <c r="N84" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E85" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="F85" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G85" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H85" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I85" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J85" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="K85" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L85" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="M85" t="s">
         <v>49</v>
       </c>
       <c r="N85" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15">
       <c r="A86" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B86" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C86" t="s">
         <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E86" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H86" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I86" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J86" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="K86" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L86" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="M86" t="s">
         <v>49</v>
       </c>
       <c r="N86" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="15">
       <c r="A87" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B87" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C87" t="s">
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E87" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="F87" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H87" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I87" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J87" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="K87" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L87" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="M87" t="s">
         <v>49</v>
       </c>
       <c r="N87" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s">
         <v>39</v>
       </c>
       <c r="D88" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E88" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="F88" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G88" t="s">
         <v>43</v>
       </c>
       <c r="H88" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I88" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J88" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="K88" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L88" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="M88" t="s">
         <v>49</v>
       </c>
       <c r="N88" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="15">
       <c r="A89" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E89" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="F89" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G89" t="s">
         <v>43</v>
       </c>
       <c r="H89" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I89" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J89" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="K89" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L89" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="M89" t="s">
         <v>49</v>
       </c>
       <c r="N89" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15">
       <c r="A90" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E90" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="F90" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G90" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I90" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J90" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="K90" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L90" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="M90" t="s">
         <v>49</v>
       </c>
       <c r="N90" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="15">
       <c r="A91" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B91" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C91" t="s">
         <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E91" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="F91" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G91" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I91" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J91" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="K91" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L91" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="M91" t="s">
         <v>49</v>
       </c>
       <c r="N91" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="15">
       <c r="A92" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C92" t="s">
         <v>39</v>
       </c>
       <c r="D92" t="s">
+        <v>332</v>
+      </c>
+      <c r="E92" t="s">
         <v>356</v>
       </c>
-      <c r="E92" t="s">
-        <v>382</v>
-      </c>
       <c r="F92" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H92" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I92" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J92" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="K92" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L92" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="M92" t="s">
         <v>49</v>
       </c>
       <c r="N92" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="15">
       <c r="A93" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C93" t="s">
         <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E93" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="F93" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H93" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I93" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J93" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="K93" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L93" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="M93" t="s">
         <v>49</v>
       </c>
       <c r="N93" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15">
       <c r="A94" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B94" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C94" t="s">
         <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E94" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="F94" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
       </c>
       <c r="H94" t="s">
+        <v>335</v>
+      </c>
+      <c r="I94" t="s">
+        <v>336</v>
+      </c>
+      <c r="J94" t="s">
         <v>359</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
+        <v>338</v>
+      </c>
+      <c r="L94" t="s">
         <v>360</v>
-      </c>
-      <c r="J94" t="s">
-        <v>387</v>
-      </c>
-      <c r="K94" t="s">
-        <v>362</v>
-      </c>
-      <c r="L94" t="s">
-        <v>388</v>
       </c>
       <c r="M94" t="s">
         <v>49</v>
       </c>
       <c r="N94" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="15">
       <c r="A95" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B95" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C95" t="s">
         <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E95" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F95" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
       </c>
       <c r="H95" t="s">
+        <v>335</v>
+      </c>
+      <c r="I95" t="s">
+        <v>336</v>
+      </c>
+      <c r="J95" t="s">
         <v>359</v>
       </c>
-      <c r="I95" t="s">
+      <c r="K95" t="s">
+        <v>338</v>
+      </c>
+      <c r="L95" t="s">
         <v>360</v>
-      </c>
-      <c r="J95" t="s">
-        <v>387</v>
-      </c>
-      <c r="K95" t="s">
-        <v>362</v>
-      </c>
-      <c r="L95" t="s">
-        <v>388</v>
       </c>
       <c r="M95" t="s">
         <v>49</v>
       </c>
       <c r="N95" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B96" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C96" t="s">
         <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E96" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="F96" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G96" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H96" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I96" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J96" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="K96" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L96" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="M96" t="s">
         <v>49</v>
       </c>
       <c r="N96" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="15">
       <c r="A97" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C97" t="s">
         <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E97" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="F97" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G97" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="I97" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J97" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="K97" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L97" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="M97" t="s">
         <v>49</v>
       </c>
       <c r="N97" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="15">
       <c r="A98" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="E98" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="F98" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G98" t="s">
         <v>59</v>
       </c>
       <c r="H98" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="I98" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J98" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="K98" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L98" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="M98" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="N98" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15">
       <c r="A99" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C99" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D99" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="E99" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="F99" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G99" t="s">
         <v>59</v>
       </c>
       <c r="H99" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="I99" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J99" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="K99" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L99" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="M99" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="N99" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="15">
       <c r="A100" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B100" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C100" t="s">
         <v>56</v>
       </c>
       <c r="D100" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>369</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="G100" t="s">
         <v>59</v>
       </c>
       <c r="H100" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="I100" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J100" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="K100" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L100" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="M100" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N100" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="15">
       <c r="A101" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C101" t="s">
         <v>56</v>
       </c>
       <c r="D101" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E101" t="s">
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="G101" t="s">
         <v>59</v>
       </c>
       <c r="H101" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="I101" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J101" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="K101" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L101" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="M101" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N101" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="15">
       <c r="A102" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B102" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C102" t="s">
-        <v>401</v>
+        <v>56</v>
       </c>
       <c r="D102" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="E102" t="s">
-        <v>403</v>
+        <v>66</v>
       </c>
       <c r="F102" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>404</v>
+        <v>59</v>
       </c>
       <c r="H102" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="I102" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J102" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="K102" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L102" t="s">
-        <v>407</v>
+        <v>62</v>
       </c>
       <c r="M102" t="s">
-        <v>408</v>
+        <v>23</v>
       </c>
       <c r="N102" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="15">
       <c r="A103" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B103" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C103" t="s">
-        <v>409</v>
+        <v>56</v>
       </c>
       <c r="D103" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="E103" t="s">
-        <v>411</v>
+        <v>67</v>
       </c>
       <c r="F103" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>404</v>
+        <v>59</v>
       </c>
       <c r="H103" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="I103" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="J103" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="K103" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="L103" t="s">
-        <v>414</v>
+        <v>62</v>
       </c>
       <c r="M103" t="s">
-        <v>415</v>
+        <v>23</v>
       </c>
       <c r="N103" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="15">
       <c r="A104" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="B104" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
       <c r="C104" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="D104" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="E104" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="G104" t="s">
-        <v>23</v>
+        <v>380</v>
       </c>
       <c r="H104" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I104" t="s">
-        <v>23</v>
+        <v>336</v>
       </c>
       <c r="J104" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="K104" t="s">
-        <v>23</v>
+        <v>338</v>
       </c>
       <c r="L104" t="s">
-        <v>23</v>
+        <v>383</v>
       </c>
       <c r="M104" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="N104" t="s">
-        <v>38</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="15">
       <c r="A105" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
       <c r="C105" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="D105" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="E105" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>380</v>
       </c>
       <c r="H105" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="I105" t="s">
-        <v>23</v>
+        <v>336</v>
       </c>
       <c r="J105" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="K105" t="s">
-        <v>23</v>
+        <v>338</v>
       </c>
       <c r="L105" t="s">
-        <v>23</v>
+        <v>390</v>
       </c>
       <c r="M105" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="N105" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15">
+      <c r="A106" t="s">
+        <v>392</v>
+      </c>
+      <c r="B106" t="s">
+        <v>393</v>
+      </c>
+      <c r="C106" t="s">
+        <v>394</v>
+      </c>
+      <c r="D106" t="s">
+        <v>395</v>
+      </c>
+      <c r="E106" t="s">
+        <v>396</v>
+      </c>
+      <c r="F106" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" t="s">
+        <v>397</v>
+      </c>
+      <c r="I106" t="s">
+        <v>23</v>
+      </c>
+      <c r="J106" t="s">
+        <v>398</v>
+      </c>
+      <c r="K106" t="s">
+        <v>23</v>
+      </c>
+      <c r="L106" t="s">
+        <v>23</v>
+      </c>
+      <c r="M106" t="s">
+        <v>399</v>
+      </c>
+      <c r="N106" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="A106" t="s">
-        <v>416</v>
-      </c>
-      <c r="B106" t="s">
-        <v>417</v>
-      </c>
-      <c r="C106" t="s">
-        <v>429</v>
-      </c>
-      <c r="D106" t="s">
-        <v>430</v>
-      </c>
-      <c r="E106" t="s">
-        <v>431</v>
-      </c>
-      <c r="F106" t="s">
-        <v>432</v>
-      </c>
-      <c r="G106" t="s">
-        <v>59</v>
-      </c>
-      <c r="H106" t="s">
-        <v>433</v>
-      </c>
-      <c r="I106" t="s">
-        <v>312</v>
-      </c>
-      <c r="J106" t="s">
-        <v>434</v>
-      </c>
-      <c r="K106" t="s">
-        <v>435</v>
-      </c>
-      <c r="L106" t="s">
-        <v>436</v>
-      </c>
-      <c r="M106" t="s">
-        <v>428</v>
-      </c>
-      <c r="N106" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="15">
       <c r="A107" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B107" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C107" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="D107" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="E107" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="F107" t="s">
         <v>23</v>
@@ -7208,13 +7347,13 @@
         <v>23</v>
       </c>
       <c r="H107" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="I107" t="s">
         <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="K107" t="s">
         <v>23</v>
@@ -7223,649 +7362,649 @@
         <v>23</v>
       </c>
       <c r="M107" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="N107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B108" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C108" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="D108" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="E108" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="F108" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="G108" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="H108" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="I108" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J108" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="K108" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="L108" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="M108" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="N108" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="15">
       <c r="A109" t="s">
+        <v>392</v>
+      </c>
+      <c r="B109" t="s">
+        <v>393</v>
+      </c>
+      <c r="C109" t="s">
+        <v>414</v>
+      </c>
+      <c r="D109" t="s">
+        <v>415</v>
+      </c>
+      <c r="E109" t="s">
+        <v>396</v>
+      </c>
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" t="s">
         <v>416</v>
       </c>
-      <c r="B109" t="s">
+      <c r="I109" t="s">
+        <v>23</v>
+      </c>
+      <c r="J109" t="s">
         <v>417</v>
       </c>
-      <c r="C109" t="s">
-        <v>443</v>
-      </c>
-      <c r="D109" t="s">
-        <v>444</v>
-      </c>
-      <c r="E109" t="s">
-        <v>453</v>
-      </c>
-      <c r="F109" t="s">
-        <v>446</v>
-      </c>
-      <c r="G109" t="s">
-        <v>125</v>
-      </c>
-      <c r="H109" t="s">
-        <v>447</v>
-      </c>
-      <c r="I109" t="s">
-        <v>312</v>
-      </c>
-      <c r="J109" t="s">
-        <v>448</v>
-      </c>
       <c r="K109" t="s">
-        <v>454</v>
+        <v>23</v>
       </c>
       <c r="L109" t="s">
-        <v>450</v>
+        <v>23</v>
       </c>
       <c r="M109" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="N109" t="s">
-        <v>452</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="15">
       <c r="A110" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B110" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C110" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="D110" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="E110" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>422</v>
       </c>
       <c r="G110" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="H110" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="I110" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="J110" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="K110" t="s">
-        <v>23</v>
+        <v>425</v>
       </c>
       <c r="L110" t="s">
-        <v>23</v>
+        <v>426</v>
       </c>
       <c r="M110" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="N110" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="15">
       <c r="A111" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B111" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C111" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="D111" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="E111" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>422</v>
       </c>
       <c r="G111" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="H111" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="I111" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="J111" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="K111" t="s">
-        <v>23</v>
+        <v>430</v>
       </c>
       <c r="L111" t="s">
-        <v>23</v>
+        <v>426</v>
       </c>
       <c r="M111" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="N111" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="15">
       <c r="A112" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B112" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C112" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="D112" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="E112" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="F112" t="s">
-        <v>471</v>
+        <v>23</v>
       </c>
       <c r="G112" t="s">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="I112" t="s">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="J112" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="K112" t="s">
-        <v>474</v>
+        <v>23</v>
       </c>
       <c r="L112" t="s">
-        <v>475</v>
+        <v>23</v>
       </c>
       <c r="M112" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="N112" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="15">
       <c r="A113" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B113" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C113" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="D113" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="E113" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="F113" t="s">
-        <v>479</v>
+        <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="H113" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="I113" t="s">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="J113" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="K113" t="s">
-        <v>481</v>
+        <v>23</v>
       </c>
       <c r="L113" t="s">
-        <v>482</v>
+        <v>23</v>
       </c>
       <c r="M113" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="N113" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="15">
       <c r="A114" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B114" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C114" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D114" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="E114" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="F114" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="G114" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H114" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="I114" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J114" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="K114" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="L114" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="M114" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="N114" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="15">
       <c r="A115" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B115" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C115" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D115" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="E115" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="F115" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="G115" t="s">
-        <v>488</v>
+        <v>252</v>
       </c>
       <c r="H115" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="I115" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J115" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="K115" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="L115" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="M115" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="N115" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15">
       <c r="A116" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B116" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C116" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="D116" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="E116" t="s">
-        <v>285</v>
+        <v>460</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
+        <v>447</v>
       </c>
       <c r="G116" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H116" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="I116" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J116" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="K116" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
       <c r="L116" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="M116" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="N116" t="s">
-        <v>38</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="15">
       <c r="A117" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B117" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C117" t="s">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="D117" t="s">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="E117" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="F117" t="s">
-        <v>94</v>
+        <v>463</v>
       </c>
       <c r="G117" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="H117" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="I117" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J117" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="K117" t="s">
-        <v>94</v>
+        <v>465</v>
       </c>
       <c r="L117" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="M117" t="s">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="N117" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B118" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C118" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="D118" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="E118" t="s">
-        <v>506</v>
+        <v>261</v>
       </c>
       <c r="F118" t="s">
-        <v>507</v>
+        <v>23</v>
       </c>
       <c r="G118" t="s">
-        <v>508</v>
+        <v>23</v>
       </c>
       <c r="H118" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="I118" t="s">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="J118" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="K118" t="s">
-        <v>509</v>
+        <v>23</v>
       </c>
       <c r="L118" t="s">
-        <v>503</v>
+        <v>23</v>
       </c>
       <c r="M118" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="N118" t="s">
-        <v>510</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="15">
       <c r="A119" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B119" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C119" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="D119" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="E119" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="F119" t="s">
-        <v>514</v>
+        <v>94</v>
       </c>
       <c r="G119" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="H119" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="I119" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J119" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="K119" t="s">
-        <v>518</v>
+        <v>94</v>
       </c>
       <c r="L119" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="M119" t="s">
-        <v>23</v>
+        <v>480</v>
       </c>
       <c r="N119" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15">
       <c r="A120" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B120" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C120" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="D120" t="s">
-        <v>522</v>
+        <v>474</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
+        <v>483</v>
       </c>
       <c r="G120" t="s">
-        <v>23</v>
+        <v>484</v>
       </c>
       <c r="H120" t="s">
-        <v>26</v>
+        <v>477</v>
       </c>
       <c r="I120" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J120" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="K120" t="s">
-        <v>23</v>
+        <v>485</v>
       </c>
       <c r="L120" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
       <c r="M120" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="N120" t="s">
-        <v>38</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="15">
       <c r="A121" t="s">
-        <v>525</v>
+        <v>392</v>
       </c>
       <c r="B121" t="s">
-        <v>526</v>
+        <v>393</v>
       </c>
       <c r="C121" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="D121" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="E121" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="F121" t="s">
-        <v>94</v>
+        <v>490</v>
       </c>
       <c r="G121" t="s">
-        <v>125</v>
+        <v>491</v>
       </c>
       <c r="H121" t="s">
-        <v>26</v>
+        <v>492</v>
       </c>
       <c r="I121" t="s">
-        <v>530</v>
+        <v>288</v>
       </c>
       <c r="J121" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="K121" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="L121" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="M121" t="s">
-        <v>534</v>
+        <v>23</v>
       </c>
       <c r="N121" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>536</v>
+        <v>392</v>
       </c>
       <c r="B122" t="s">
-        <v>537</v>
+        <v>393</v>
       </c>
       <c r="C122" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="D122" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="E122" t="s">
-        <v>540</v>
+        <v>261</v>
       </c>
       <c r="F122" t="s">
-        <v>541</v>
+        <v>23</v>
       </c>
       <c r="G122" t="s">
-        <v>542</v>
+        <v>23</v>
       </c>
       <c r="H122" t="s">
         <v>26</v>
@@ -7874,63 +8013,151 @@
         <v>23</v>
       </c>
       <c r="J122" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
       <c r="K122" t="s">
         <v>23</v>
       </c>
       <c r="L122" t="s">
-        <v>544</v>
+        <v>23</v>
       </c>
       <c r="M122" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="N122" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15">
       <c r="A123" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="B123" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="C123" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="D123" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="E123" t="s">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="F123" t="s">
-        <v>541</v>
+        <v>94</v>
       </c>
       <c r="G123" t="s">
-        <v>542</v>
+        <v>125</v>
       </c>
       <c r="H123" t="s">
         <v>26</v>
       </c>
       <c r="I123" t="s">
-        <v>23</v>
+        <v>506</v>
       </c>
       <c r="J123" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="K123" t="s">
-        <v>23</v>
+        <v>508</v>
       </c>
       <c r="L123" t="s">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="M123" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
       <c r="N123" t="s">
-        <v>546</v>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="s">
+        <v>512</v>
+      </c>
+      <c r="B124" t="s">
+        <v>513</v>
+      </c>
+      <c r="C124" t="s">
+        <v>514</v>
+      </c>
+      <c r="D124" t="s">
+        <v>515</v>
+      </c>
+      <c r="E124" t="s">
+        <v>516</v>
+      </c>
+      <c r="F124" t="s">
+        <v>517</v>
+      </c>
+      <c r="G124" t="s">
+        <v>518</v>
+      </c>
+      <c r="H124" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" t="s">
+        <v>23</v>
+      </c>
+      <c r="J124" t="s">
+        <v>519</v>
+      </c>
+      <c r="K124" t="s">
+        <v>23</v>
+      </c>
+      <c r="L124" t="s">
+        <v>520</v>
+      </c>
+      <c r="M124" t="s">
+        <v>521</v>
+      </c>
+      <c r="N124" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>512</v>
+      </c>
+      <c r="B125" t="s">
+        <v>513</v>
+      </c>
+      <c r="C125" t="s">
+        <v>523</v>
+      </c>
+      <c r="D125" t="s">
+        <v>515</v>
+      </c>
+      <c r="E125" t="s">
+        <v>525</v>
+      </c>
+      <c r="F125" t="s">
+        <v>517</v>
+      </c>
+      <c r="G125" t="s">
+        <v>518</v>
+      </c>
+      <c r="H125" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" t="s">
+        <v>23</v>
+      </c>
+      <c r="J125" t="s">
+        <v>526</v>
+      </c>
+      <c r="K125" t="s">
+        <v>23</v>
+      </c>
+      <c r="L125" t="s">
+        <v>527</v>
+      </c>
+      <c r="M125" t="s">
+        <v>528</v>
+      </c>
+      <c r="N125" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -7955,12 +8182,12 @@
     <hyperlink ref="A57" r:id="rId18" tooltip="VESimHouseholds" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimHouseholds" xr:uid="{BC6FA50E-D8A8-44C1-BF2D-FFE7966911E3}"/>
     <hyperlink ref="A62" r:id="rId19" tooltip="VESimLandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimLandUse" xr:uid="{864744C8-F6B5-4F72-84C5-6D3728ADC7E8}"/>
     <hyperlink ref="A72" r:id="rId20" tooltip="VESimLandUseData" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimLandUseData" xr:uid="{EDBA8F3C-F894-43F4-B4EC-936E38D9DED4}"/>
-    <hyperlink ref="A73" r:id="rId21" tooltip="VESyntheticFirms" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms" xr:uid="{497C756A-E842-44B2-AF12-11643CB2FC80}"/>
-    <hyperlink ref="A75" r:id="rId22" tooltip="VETransportSupply" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupply" xr:uid="{FE186D02-B5F8-4B36-8CB0-60264DDC311E}"/>
-    <hyperlink ref="A80" r:id="rId23" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{A4880304-E982-4BF7-974B-AD5C82F4820A}"/>
-    <hyperlink ref="A104" r:id="rId24" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{A9B9CDD9-394B-44AF-9D89-C79C750F8A0B}"/>
-    <hyperlink ref="A121" r:id="rId25" tooltip="VEReports" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEReports" xr:uid="{4E9AE5EE-F167-41F3-B17E-44E9DB830814}"/>
-    <hyperlink ref="A122" r:id="rId26" tooltip="VEScenario" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEScenario" xr:uid="{9F2C3703-F71A-489F-8CDE-FE55F9098B12}"/>
+    <hyperlink ref="A75" r:id="rId21" tooltip="VESyntheticFirms" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms" xr:uid="{497C756A-E842-44B2-AF12-11643CB2FC80}"/>
+    <hyperlink ref="A77" r:id="rId22" tooltip="VETransportSupply" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupply" xr:uid="{FE186D02-B5F8-4B36-8CB0-60264DDC311E}"/>
+    <hyperlink ref="A82" r:id="rId23" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{A4880304-E982-4BF7-974B-AD5C82F4820A}"/>
+    <hyperlink ref="A106" r:id="rId24" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{A9B9CDD9-394B-44AF-9D89-C79C750F8A0B}"/>
+    <hyperlink ref="A123" r:id="rId25" tooltip="VEReports" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEReports" xr:uid="{4E9AE5EE-F167-41F3-B17E-44E9DB830814}"/>
+    <hyperlink ref="A124" r:id="rId26" tooltip="VEScenario" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEScenario" xr:uid="{9F2C3703-F71A-489F-8CDE-FE55F9098B12}"/>
     <hyperlink ref="A35" r:id="rId27" tooltip="VEHouseholdVehicles" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEHouseholdVehicles" xr:uid="{2BFCA64C-3DD1-4DF1-AEF7-D9A38A657581}"/>
     <hyperlink ref="A36" r:id="rId28" tooltip="VEHouseholdVehicles" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEHouseholdVehicles" xr:uid="{0DB27886-4CBB-4E0E-AD8E-3811B3F0685E}"/>
     <hyperlink ref="A38" r:id="rId29" tooltip="VEHouseholdVehicles" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEHouseholdVehicles" xr:uid="{38977610-198B-44FE-80B1-D1FE9D87B29E}"/>
@@ -8086,105 +8313,105 @@
     <hyperlink ref="A61" r:id="rId149" tooltip="VESimHouseholds" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimHouseholds" xr:uid="{C59E1AD2-105E-42FF-960B-BA144078DB32}"/>
     <hyperlink ref="L61" r:id="rId150" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimHouseholds/data" xr:uid="{6FA47EE8-AC36-4651-9B44-B1928C66BA29}"/>
     <hyperlink ref="M61" r:id="rId151" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimHouseholds/data" xr:uid="{622EC4A7-E1B5-427D-B449-19DDF929BCCA}"/>
-    <hyperlink ref="J121" r:id="rId152" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEReports/R" xr:uid="{BD28144D-20AD-4D03-83CF-184A8CFBC46C}"/>
-    <hyperlink ref="L121" r:id="rId153" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEReports/data" xr:uid="{2C6CFF67-226B-4BDE-9E4E-D9EF43817534}"/>
-    <hyperlink ref="M121" r:id="rId154" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEReports/data" xr:uid="{75301760-C3C6-4E19-89BE-A5A0B42CF41B}"/>
-    <hyperlink ref="J73" r:id="rId155" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms/R" xr:uid="{E8FF18E1-27C2-45BC-A1C0-C9321EA15FEA}"/>
-    <hyperlink ref="M73" r:id="rId156" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms/data" xr:uid="{EC534ACE-928F-4CBB-B4AE-3893F80EFC1C}"/>
-    <hyperlink ref="A74" r:id="rId157" tooltip="VESyntheticFirms" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms" xr:uid="{328342A3-CDB6-4223-842E-EF7FBD39C27B}"/>
-    <hyperlink ref="J74" r:id="rId158" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms/R" xr:uid="{8CE3B28F-2577-4D8B-BD3B-B5EB486D725D}"/>
-    <hyperlink ref="M74" r:id="rId159" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms/data" xr:uid="{7B55D3D3-D4E3-46D5-88C7-5EEBC3DFC2E2}"/>
-    <hyperlink ref="A82" r:id="rId160" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{A4C11AF1-A9CF-45B3-AC3B-CD738D0C68CC}"/>
-    <hyperlink ref="A86" r:id="rId161" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{AD81D638-038E-45B6-904F-7298F88E30BF}"/>
-    <hyperlink ref="A88" r:id="rId162" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{6D505BC4-30B1-40DE-B18D-98B342546555}"/>
-    <hyperlink ref="A92" r:id="rId163" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{3F0207AE-F126-4735-986C-3A321B1EF326}"/>
-    <hyperlink ref="A94" r:id="rId164" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{F5B4E4F4-8FE1-4A73-956D-494664A92F72}"/>
-    <hyperlink ref="M80" r:id="rId165" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{7A7BE4E6-DEA8-43B4-82D7-B02EDA01341A}"/>
-    <hyperlink ref="M82:M94" r:id="rId166" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{5E3F15FC-8803-4EFA-A1F7-9EE5DFA364A8}"/>
-    <hyperlink ref="L80" r:id="rId167" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{ABA0C234-A4CC-4DFC-BFC8-60763827DFFB}"/>
-    <hyperlink ref="L82" r:id="rId168" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{95C4D0EE-5E1D-4176-A633-779BCBC70BAF}"/>
-    <hyperlink ref="L86" r:id="rId169" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{6DA6BE7B-116D-4608-B2C1-8E591CDEF2B7}"/>
-    <hyperlink ref="L88" r:id="rId170" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{C40172C4-6BDC-444B-8891-0590731E6257}"/>
-    <hyperlink ref="L92" r:id="rId171" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{1263A07D-3125-46EC-A9C1-A9A2B6FDA187}"/>
-    <hyperlink ref="L94" r:id="rId172" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{90B56F01-4F3A-42CD-9FF7-8D8FCB0DC872}"/>
-    <hyperlink ref="A81" r:id="rId173" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{DCE3A986-6D93-4EF3-B91E-1892F7274A41}"/>
-    <hyperlink ref="M81" r:id="rId174" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{EE59B0D7-2DE8-4643-B401-DB6367BA3D7B}"/>
-    <hyperlink ref="L81" r:id="rId175" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{347C095E-7AE0-4FBA-9412-B4D0DA4E9909}"/>
-    <hyperlink ref="A83" r:id="rId176" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{7F103C68-73F6-4367-8DDD-C909687733F8}"/>
-    <hyperlink ref="M83" r:id="rId177" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{54BC514D-89D9-40BD-B5B5-1BC8A63774DB}"/>
-    <hyperlink ref="L83" r:id="rId178" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{A9B79771-1369-43AA-93FC-CBB9D048E951}"/>
-    <hyperlink ref="A84" r:id="rId179" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{E48D74CE-40EE-4624-A49A-395908BF2C79}"/>
-    <hyperlink ref="M84" r:id="rId180" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{BF3F6C43-A053-4BD5-935F-110D6499D81E}"/>
-    <hyperlink ref="L84" r:id="rId181" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{8F9256F8-68E9-4A8D-8CE6-F43D4E6BF162}"/>
-    <hyperlink ref="A85" r:id="rId182" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{0F5444EE-4A83-4E7C-A65E-F0C29C374C4A}"/>
-    <hyperlink ref="M85" r:id="rId183" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{DFA803AC-CAB2-4F26-A4E6-7D35921D4A6A}"/>
-    <hyperlink ref="L85" r:id="rId184" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{2FBB6E54-7206-4039-8D84-83D06B0C4A64}"/>
-    <hyperlink ref="A87" r:id="rId185" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{1CDDC7A6-CB39-4ABA-92C7-F4C0C524C135}"/>
-    <hyperlink ref="M87" r:id="rId186" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{54E3FB61-B77E-43A0-8FEF-1D23950B662A}"/>
-    <hyperlink ref="L87" r:id="rId187" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{A73429DC-55EA-4BB5-A9B3-8E1160FB5BCE}"/>
-    <hyperlink ref="A89" r:id="rId188" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{D373B580-2215-4FF5-8AB8-0C000392B709}"/>
-    <hyperlink ref="M89" r:id="rId189" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{6243D5EB-7847-4FC7-96A5-FCEF5FDEEE2D}"/>
-    <hyperlink ref="L89" r:id="rId190" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{9930E654-9CA3-4175-8CB6-620A63377825}"/>
-    <hyperlink ref="A90" r:id="rId191" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{5FD67A4E-2EF1-48E0-A3DE-09A16B5FC27D}"/>
-    <hyperlink ref="M90" r:id="rId192" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{E5213957-3AE7-4362-868F-78C64DC6E1A1}"/>
-    <hyperlink ref="L90" r:id="rId193" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{0B8F4307-8491-4418-AA44-ACA50C50493C}"/>
-    <hyperlink ref="A91" r:id="rId194" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{491B9DBB-F1B8-420F-8A79-1A38A3C49675}"/>
-    <hyperlink ref="M91" r:id="rId195" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{87AE1B5E-3E67-4E2C-89F5-8947576484C5}"/>
-    <hyperlink ref="L91" r:id="rId196" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{73737A79-D7BB-4168-A9C8-76EC6D6972E1}"/>
-    <hyperlink ref="A93" r:id="rId197" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{8359CFFA-C4B0-4507-B7AF-3CE4D9D1E2CD}"/>
-    <hyperlink ref="M93" r:id="rId198" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{69A2ED15-E1B9-4305-9C9F-6DD6AF89A092}"/>
-    <hyperlink ref="L93" r:id="rId199" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{D4A213D0-3BF1-4A6E-A4F5-ECB9380BCC49}"/>
-    <hyperlink ref="A95" r:id="rId200" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{E11750A3-41F8-43D2-AACE-D789B1D37C68}"/>
-    <hyperlink ref="M95" r:id="rId201" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{EE1CB4B2-9802-41A9-AF93-8FD449360118}"/>
-    <hyperlink ref="L95" r:id="rId202" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{747EB2FD-DB54-403D-A276-2EDAD9A2AE82}"/>
-    <hyperlink ref="A96" r:id="rId203" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{81D6D887-9F69-4C88-8F60-CB841C255FF3}"/>
-    <hyperlink ref="M96" r:id="rId204" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{90800493-C811-455D-9A83-44F9DBDA319C}"/>
-    <hyperlink ref="L96" r:id="rId205" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{14A2C828-59E4-4922-84C4-7E1892B831E5}"/>
-    <hyperlink ref="A97" r:id="rId206" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{72B081C3-03B9-43D5-9E9B-3E4C3D7195BD}"/>
-    <hyperlink ref="M97" r:id="rId207" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{866C2464-DE8A-4DD0-ADF0-E8FE1CDA7123}"/>
-    <hyperlink ref="L97" r:id="rId208" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{9A824F18-07CF-40AE-A20F-CA6EC801F17B}"/>
-    <hyperlink ref="A98" r:id="rId209" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{93506831-06E0-457F-83F0-70839484C207}"/>
-    <hyperlink ref="A99" r:id="rId210" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{8EAA1AF0-A240-4303-8BAA-E1D9DC075D97}"/>
-    <hyperlink ref="M98" r:id="rId211" xr:uid="{9FFCD747-F62D-4302-AB46-110D9169E083}"/>
-    <hyperlink ref="M99" r:id="rId212" xr:uid="{1F698AA4-B158-4295-B0E2-10EDD3D61317}"/>
-    <hyperlink ref="L98" r:id="rId213" xr:uid="{1285C373-06FD-4B62-B55E-27A55EF5C07D}"/>
-    <hyperlink ref="L99" r:id="rId214" xr:uid="{9B432D89-C0FB-40E4-BE31-C2CCF2101E33}"/>
-    <hyperlink ref="A100" r:id="rId215" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{EA8494D0-816C-4E7D-A052-B297BC4ED651}"/>
-    <hyperlink ref="M100" r:id="rId216" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{17A30D1E-A475-4CFD-AF81-64D3C59257CD}"/>
+    <hyperlink ref="J123" r:id="rId152" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEReports/R" xr:uid="{BD28144D-20AD-4D03-83CF-184A8CFBC46C}"/>
+    <hyperlink ref="L123" r:id="rId153" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEReports/data" xr:uid="{2C6CFF67-226B-4BDE-9E4E-D9EF43817534}"/>
+    <hyperlink ref="M123" r:id="rId154" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEReports/data" xr:uid="{75301760-C3C6-4E19-89BE-A5A0B42CF41B}"/>
+    <hyperlink ref="J75" r:id="rId155" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms/R" xr:uid="{E8FF18E1-27C2-45BC-A1C0-C9321EA15FEA}"/>
+    <hyperlink ref="M75" r:id="rId156" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms/data" xr:uid="{EC534ACE-928F-4CBB-B4AE-3893F80EFC1C}"/>
+    <hyperlink ref="A76" r:id="rId157" tooltip="VESyntheticFirms" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms" xr:uid="{328342A3-CDB6-4223-842E-EF7FBD39C27B}"/>
+    <hyperlink ref="J76" r:id="rId158" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms/R" xr:uid="{8CE3B28F-2577-4D8B-BD3B-B5EB486D725D}"/>
+    <hyperlink ref="M76" r:id="rId159" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESyntheticFirms/data" xr:uid="{7B55D3D3-D4E3-46D5-88C7-5EEBC3DFC2E2}"/>
+    <hyperlink ref="A84" r:id="rId160" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{A4C11AF1-A9CF-45B3-AC3B-CD738D0C68CC}"/>
+    <hyperlink ref="A88" r:id="rId161" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{AD81D638-038E-45B6-904F-7298F88E30BF}"/>
+    <hyperlink ref="A90" r:id="rId162" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{6D505BC4-30B1-40DE-B18D-98B342546555}"/>
+    <hyperlink ref="A94" r:id="rId163" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{3F0207AE-F126-4735-986C-3A321B1EF326}"/>
+    <hyperlink ref="A96" r:id="rId164" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{F5B4E4F4-8FE1-4A73-956D-494664A92F72}"/>
+    <hyperlink ref="M82" r:id="rId165" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{7A7BE4E6-DEA8-43B4-82D7-B02EDA01341A}"/>
+    <hyperlink ref="M84:M96" r:id="rId166" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{5E3F15FC-8803-4EFA-A1F7-9EE5DFA364A8}"/>
+    <hyperlink ref="L82" r:id="rId167" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{ABA0C234-A4CC-4DFC-BFC8-60763827DFFB}"/>
+    <hyperlink ref="L84" r:id="rId168" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{95C4D0EE-5E1D-4176-A633-779BCBC70BAF}"/>
+    <hyperlink ref="L88" r:id="rId169" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{6DA6BE7B-116D-4608-B2C1-8E591CDEF2B7}"/>
+    <hyperlink ref="L90" r:id="rId170" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{C40172C4-6BDC-444B-8891-0590731E6257}"/>
+    <hyperlink ref="L94" r:id="rId171" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{1263A07D-3125-46EC-A9C1-A9A2B6FDA187}"/>
+    <hyperlink ref="L96" r:id="rId172" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{90B56F01-4F3A-42CD-9FF7-8D8FCB0DC872}"/>
+    <hyperlink ref="A83" r:id="rId173" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{DCE3A986-6D93-4EF3-B91E-1892F7274A41}"/>
+    <hyperlink ref="M83" r:id="rId174" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{EE59B0D7-2DE8-4643-B401-DB6367BA3D7B}"/>
+    <hyperlink ref="L83" r:id="rId175" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{347C095E-7AE0-4FBA-9412-B4D0DA4E9909}"/>
+    <hyperlink ref="A85" r:id="rId176" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{7F103C68-73F6-4367-8DDD-C909687733F8}"/>
+    <hyperlink ref="M85" r:id="rId177" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{54BC514D-89D9-40BD-B5B5-1BC8A63774DB}"/>
+    <hyperlink ref="L85" r:id="rId178" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{A9B79771-1369-43AA-93FC-CBB9D048E951}"/>
+    <hyperlink ref="A86" r:id="rId179" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{E48D74CE-40EE-4624-A49A-395908BF2C79}"/>
+    <hyperlink ref="M86" r:id="rId180" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{BF3F6C43-A053-4BD5-935F-110D6499D81E}"/>
+    <hyperlink ref="L86" r:id="rId181" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{8F9256F8-68E9-4A8D-8CE6-F43D4E6BF162}"/>
+    <hyperlink ref="A87" r:id="rId182" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{0F5444EE-4A83-4E7C-A65E-F0C29C374C4A}"/>
+    <hyperlink ref="M87" r:id="rId183" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{DFA803AC-CAB2-4F26-A4E6-7D35921D4A6A}"/>
+    <hyperlink ref="L87" r:id="rId184" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{2FBB6E54-7206-4039-8D84-83D06B0C4A64}"/>
+    <hyperlink ref="A89" r:id="rId185" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{1CDDC7A6-CB39-4ABA-92C7-F4C0C524C135}"/>
+    <hyperlink ref="M89" r:id="rId186" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{54E3FB61-B77E-43A0-8FEF-1D23950B662A}"/>
+    <hyperlink ref="L89" r:id="rId187" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{A73429DC-55EA-4BB5-A9B3-8E1160FB5BCE}"/>
+    <hyperlink ref="A91" r:id="rId188" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{D373B580-2215-4FF5-8AB8-0C000392B709}"/>
+    <hyperlink ref="M91" r:id="rId189" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{6243D5EB-7847-4FC7-96A5-FCEF5FDEEE2D}"/>
+    <hyperlink ref="L91" r:id="rId190" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{9930E654-9CA3-4175-8CB6-620A63377825}"/>
+    <hyperlink ref="A92" r:id="rId191" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{5FD67A4E-2EF1-48E0-A3DE-09A16B5FC27D}"/>
+    <hyperlink ref="M92" r:id="rId192" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{E5213957-3AE7-4362-868F-78C64DC6E1A1}"/>
+    <hyperlink ref="L92" r:id="rId193" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{0B8F4307-8491-4418-AA44-ACA50C50493C}"/>
+    <hyperlink ref="A93" r:id="rId194" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{491B9DBB-F1B8-420F-8A79-1A38A3C49675}"/>
+    <hyperlink ref="M93" r:id="rId195" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{87AE1B5E-3E67-4E2C-89F5-8947576484C5}"/>
+    <hyperlink ref="L93" r:id="rId196" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{73737A79-D7BB-4168-A9C8-76EC6D6972E1}"/>
+    <hyperlink ref="A95" r:id="rId197" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{8359CFFA-C4B0-4507-B7AF-3CE4D9D1E2CD}"/>
+    <hyperlink ref="M95" r:id="rId198" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{69A2ED15-E1B9-4305-9C9F-6DD6AF89A092}"/>
+    <hyperlink ref="L95" r:id="rId199" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{D4A213D0-3BF1-4A6E-A4F5-ECB9380BCC49}"/>
+    <hyperlink ref="A97" r:id="rId200" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{E11750A3-41F8-43D2-AACE-D789B1D37C68}"/>
+    <hyperlink ref="M97" r:id="rId201" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{EE1CB4B2-9802-41A9-AF93-8FD449360118}"/>
+    <hyperlink ref="L97" r:id="rId202" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{747EB2FD-DB54-403D-A276-2EDAD9A2AE82}"/>
+    <hyperlink ref="A98" r:id="rId203" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{81D6D887-9F69-4C88-8F60-CB841C255FF3}"/>
+    <hyperlink ref="M98" r:id="rId204" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{90800493-C811-455D-9A83-44F9DBDA319C}"/>
+    <hyperlink ref="L98" r:id="rId205" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{14A2C828-59E4-4922-84C4-7E1892B831E5}"/>
+    <hyperlink ref="A99" r:id="rId206" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{72B081C3-03B9-43D5-9E9B-3E4C3D7195BD}"/>
+    <hyperlink ref="M99" r:id="rId207" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{866C2464-DE8A-4DD0-ADF0-E8FE1CDA7123}"/>
+    <hyperlink ref="L99" r:id="rId208" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{9A824F18-07CF-40AE-A20F-CA6EC801F17B}"/>
+    <hyperlink ref="A100" r:id="rId209" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{93506831-06E0-457F-83F0-70839484C207}"/>
+    <hyperlink ref="A101" r:id="rId210" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{8EAA1AF0-A240-4303-8BAA-E1D9DC075D97}"/>
+    <hyperlink ref="M100" r:id="rId211" xr:uid="{9FFCD747-F62D-4302-AB46-110D9169E083}"/>
+    <hyperlink ref="M101" r:id="rId212" xr:uid="{1F698AA4-B158-4295-B0E2-10EDD3D61317}"/>
+    <hyperlink ref="L100" r:id="rId213" xr:uid="{1285C373-06FD-4B62-B55E-27A55EF5C07D}"/>
+    <hyperlink ref="L101" r:id="rId214" xr:uid="{9B432D89-C0FB-40E4-BE31-C2CCF2101E33}"/>
+    <hyperlink ref="A102" r:id="rId215" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{EA8494D0-816C-4E7D-A052-B297BC4ED651}"/>
+    <hyperlink ref="M102" r:id="rId216" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{17A30D1E-A475-4CFD-AF81-64D3C59257CD}"/>
     <hyperlink ref="H45" r:id="rId217" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VELandUse/inst/module_docs/AssignLocTypes.md" xr:uid="{E800CF32-94E5-498B-BCB7-F5048CF90F57}"/>
-    <hyperlink ref="A101" r:id="rId218" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{51A097D4-E06F-487D-9CFC-16BAB8308095}"/>
-    <hyperlink ref="M101" r:id="rId219" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{9B1AA345-48CA-42DF-96C5-9172E2EA1516}"/>
-    <hyperlink ref="J101" r:id="rId220" xr:uid="{05323F09-FCDF-4E84-B186-F201D571FE43}"/>
-    <hyperlink ref="L100" r:id="rId221" xr:uid="{F593D74F-D42B-429C-BDF3-FEC5BE0A7587}"/>
-    <hyperlink ref="L101" r:id="rId222" xr:uid="{676A2F88-2495-4BE3-BA89-116D645EADF3}"/>
-    <hyperlink ref="A102" r:id="rId223" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{0992BA35-4C46-4D96-AC96-DC75ADF96333}"/>
-    <hyperlink ref="A103" r:id="rId224" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{C21904B3-7396-46BA-8067-0AD53CC10B74}"/>
-    <hyperlink ref="J103" r:id="rId225" xr:uid="{6DFF8C1A-0DD9-4095-9D89-309E7C009E22}"/>
-    <hyperlink ref="L103" r:id="rId226" xr:uid="{7CB527CA-DB51-4FCA-AA37-302507E70A93}"/>
-    <hyperlink ref="M102" r:id="rId227" xr:uid="{7981F043-2F56-40FB-A3B8-7A0B77C4274D}"/>
+    <hyperlink ref="A103" r:id="rId218" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{51A097D4-E06F-487D-9CFC-16BAB8308095}"/>
+    <hyperlink ref="M103" r:id="rId219" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM/data" xr:uid="{9B1AA345-48CA-42DF-96C5-9172E2EA1516}"/>
+    <hyperlink ref="J103" r:id="rId220" xr:uid="{05323F09-FCDF-4E84-B186-F201D571FE43}"/>
+    <hyperlink ref="L102" r:id="rId221" xr:uid="{F593D74F-D42B-429C-BDF3-FEC5BE0A7587}"/>
+    <hyperlink ref="L103" r:id="rId222" xr:uid="{676A2F88-2495-4BE3-BA89-116D645EADF3}"/>
+    <hyperlink ref="A104" r:id="rId223" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{0992BA35-4C46-4D96-AC96-DC75ADF96333}"/>
+    <hyperlink ref="A105" r:id="rId224" tooltip="VETravelDemandMM" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelDemandMM" xr:uid="{C21904B3-7396-46BA-8067-0AD53CC10B74}"/>
+    <hyperlink ref="J105" r:id="rId225" xr:uid="{6DFF8C1A-0DD9-4095-9D89-309E7C009E22}"/>
+    <hyperlink ref="L105" r:id="rId226" xr:uid="{7CB527CA-DB51-4FCA-AA37-302507E70A93}"/>
+    <hyperlink ref="M104" r:id="rId227" xr:uid="{7981F043-2F56-40FB-A3B8-7A0B77C4274D}"/>
     <hyperlink ref="A48" r:id="rId228" tooltip="VELandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VELandUse" xr:uid="{687C0812-D0B1-4FDE-A68C-623F98DEA796}"/>
-    <hyperlink ref="M103" r:id="rId229" xr:uid="{CF6DCA83-8C11-4718-9FE3-8BC39921FD71}"/>
+    <hyperlink ref="M105" r:id="rId229" xr:uid="{CF6DCA83-8C11-4718-9FE3-8BC39921FD71}"/>
     <hyperlink ref="A51" r:id="rId230" tooltip="VELandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VELandUse" xr:uid="{43CE7E74-4A42-4306-A964-B3E07FD4F6A8}"/>
     <hyperlink ref="A52" r:id="rId231" tooltip="VELandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VELandUse" xr:uid="{A5E34BA3-9E26-49D2-B87D-A687F69D79FD}"/>
-    <hyperlink ref="J104" r:id="rId232" xr:uid="{B45F4638-664D-4F60-8022-077A2F2B7A3B}"/>
-    <hyperlink ref="A105" r:id="rId233" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{73259CE7-A033-4E49-9052-B1400B40CBB3}"/>
-    <hyperlink ref="J105" r:id="rId234" xr:uid="{EC198E15-1CE0-4DAE-9866-E42019C5FD55}"/>
-    <hyperlink ref="A106" r:id="rId235" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{C6C92F74-6877-4B5C-9ED0-0D75CFBA00C7}"/>
-    <hyperlink ref="A107" r:id="rId236" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{40513D0E-B83F-4B8E-A371-D9B733B48AAF}"/>
-    <hyperlink ref="A108" r:id="rId237" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{912ADA01-96D2-413B-B253-CED3D9A1AF7B}"/>
-    <hyperlink ref="A109" r:id="rId238" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{608AF073-7B81-44ED-89CD-0444ECAAAE72}"/>
-    <hyperlink ref="J108" r:id="rId239" xr:uid="{F5453230-9B2C-4AC9-B033-C94EA2BE8A28}"/>
-    <hyperlink ref="J109" r:id="rId240" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance/R" xr:uid="{58B07F3C-6D22-4E26-8833-2CD79595DA02}"/>
-    <hyperlink ref="A110" r:id="rId241" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{213B5C60-2F73-4A0A-BF97-5D7628C250A2}"/>
-    <hyperlink ref="J110" r:id="rId242" xr:uid="{8D3F9110-203E-4303-83C2-0AF0C5461AD2}"/>
-    <hyperlink ref="A111" r:id="rId243" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{1286D39D-A242-48A5-B76B-A8D9231B5BF7}"/>
-    <hyperlink ref="J111" r:id="rId244" xr:uid="{302A3328-0F9A-4CF1-A102-D4E29B613C1F}"/>
-    <hyperlink ref="A112" r:id="rId245" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{9BE3A65A-274E-4A52-8FA5-F03248799D7C}"/>
-    <hyperlink ref="A113" r:id="rId246" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{A1C872CB-4CBD-49F8-8D64-7D7B15DC1F86}"/>
-    <hyperlink ref="A114" r:id="rId247" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{9CBD6EB4-D3DE-41BF-A23A-92A9E2BE552F}"/>
-    <hyperlink ref="A115" r:id="rId248" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{4A4C3348-502E-4047-AFED-F6C4AD1EB072}"/>
-    <hyperlink ref="A116" r:id="rId249" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{AE7F0EEB-39F8-4B07-85D7-3B73256E59D9}"/>
-    <hyperlink ref="J116" r:id="rId250" xr:uid="{95CF0ACF-92F2-4A48-930B-A9B3A3682A85}"/>
+    <hyperlink ref="J106" r:id="rId232" xr:uid="{B45F4638-664D-4F60-8022-077A2F2B7A3B}"/>
+    <hyperlink ref="A107" r:id="rId233" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{73259CE7-A033-4E49-9052-B1400B40CBB3}"/>
+    <hyperlink ref="J107" r:id="rId234" xr:uid="{EC198E15-1CE0-4DAE-9866-E42019C5FD55}"/>
+    <hyperlink ref="A108" r:id="rId235" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{C6C92F74-6877-4B5C-9ED0-0D75CFBA00C7}"/>
+    <hyperlink ref="A109" r:id="rId236" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{40513D0E-B83F-4B8E-A371-D9B733B48AAF}"/>
+    <hyperlink ref="A110" r:id="rId237" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{912ADA01-96D2-413B-B253-CED3D9A1AF7B}"/>
+    <hyperlink ref="A111" r:id="rId238" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{608AF073-7B81-44ED-89CD-0444ECAAAE72}"/>
+    <hyperlink ref="J110" r:id="rId239" xr:uid="{F5453230-9B2C-4AC9-B033-C94EA2BE8A28}"/>
+    <hyperlink ref="J111" r:id="rId240" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance/R" xr:uid="{58B07F3C-6D22-4E26-8833-2CD79595DA02}"/>
+    <hyperlink ref="A112" r:id="rId241" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{213B5C60-2F73-4A0A-BF97-5D7628C250A2}"/>
+    <hyperlink ref="J112" r:id="rId242" xr:uid="{8D3F9110-203E-4303-83C2-0AF0C5461AD2}"/>
+    <hyperlink ref="A113" r:id="rId243" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{1286D39D-A242-48A5-B76B-A8D9231B5BF7}"/>
+    <hyperlink ref="J113" r:id="rId244" xr:uid="{302A3328-0F9A-4CF1-A102-D4E29B613C1F}"/>
+    <hyperlink ref="A114" r:id="rId245" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{9BE3A65A-274E-4A52-8FA5-F03248799D7C}"/>
+    <hyperlink ref="A115" r:id="rId246" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{A1C872CB-4CBD-49F8-8D64-7D7B15DC1F86}"/>
+    <hyperlink ref="A116" r:id="rId247" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{9CBD6EB4-D3DE-41BF-A23A-92A9E2BE552F}"/>
+    <hyperlink ref="A117" r:id="rId248" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{4A4C3348-502E-4047-AFED-F6C4AD1EB072}"/>
+    <hyperlink ref="A118" r:id="rId249" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{AE7F0EEB-39F8-4B07-85D7-3B73256E59D9}"/>
+    <hyperlink ref="J118" r:id="rId250" xr:uid="{95CF0ACF-92F2-4A48-930B-A9B3A3682A85}"/>
     <hyperlink ref="A63" r:id="rId251" tooltip="VESimLandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimLandUse" xr:uid="{0E51E1F2-505D-47CC-8047-6CE01A6BE57D}"/>
     <hyperlink ref="A64" r:id="rId252" tooltip="VESimLandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimLandUse" xr:uid="{179AEB6F-E965-4131-8CE8-B57145002C70}"/>
     <hyperlink ref="A65" r:id="rId253" tooltip="VESimLandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimLandUse" xr:uid="{703363C5-3E74-4F07-BDD1-66CEE63C0756}"/>
@@ -8194,32 +8421,32 @@
     <hyperlink ref="A69" r:id="rId257" tooltip="VESimLandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimLandUse" xr:uid="{815796E8-2CEB-4A0F-ABF9-412E50C1BFF4}"/>
     <hyperlink ref="A70" r:id="rId258" tooltip="VESimLandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimLandUse" xr:uid="{83BC31AE-7138-4044-8733-58D5D959C81E}"/>
     <hyperlink ref="A71" r:id="rId259" tooltip="VESimLandUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VESimLandUse" xr:uid="{F798E9E9-0FC8-4301-A9F0-84F229636754}"/>
-    <hyperlink ref="A117" r:id="rId260" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{3869D08D-8D0C-4CAB-AFAD-BD6B93909CC4}"/>
-    <hyperlink ref="A118" r:id="rId261" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{5C2E58A2-C079-44EF-B9DF-2BBC2D058C76}"/>
-    <hyperlink ref="J117" r:id="rId262" xr:uid="{07D2BAA4-6354-42F4-B136-289874C83416}"/>
-    <hyperlink ref="J118" r:id="rId263" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance/R" xr:uid="{EF3724D7-E85E-4475-8F24-25A59BA401C3}"/>
-    <hyperlink ref="A119" r:id="rId264" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{656A058E-085D-458E-8628-285438263040}"/>
-    <hyperlink ref="A120" r:id="rId265" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{A827F085-D465-4BD9-8940-3DABC0BD4EB0}"/>
-    <hyperlink ref="J120" r:id="rId266" xr:uid="{3241C91E-DCE2-48CB-8B0D-68DF3CF2D41C}"/>
-    <hyperlink ref="J122" r:id="rId267" xr:uid="{46148D67-B59F-46A9-A036-2F91726314E9}"/>
-    <hyperlink ref="A123" r:id="rId268" tooltip="VEScenario" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEScenario" xr:uid="{5CE5EEB9-BEF6-4214-96C7-D77E6E136E6B}"/>
-    <hyperlink ref="J123" r:id="rId269" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEScenario/R" xr:uid="{F8E70722-AA5D-4427-96C7-A9C1688CE598}"/>
+    <hyperlink ref="A119" r:id="rId260" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{3869D08D-8D0C-4CAB-AFAD-BD6B93909CC4}"/>
+    <hyperlink ref="A120" r:id="rId261" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{5C2E58A2-C079-44EF-B9DF-2BBC2D058C76}"/>
+    <hyperlink ref="J119" r:id="rId262" xr:uid="{07D2BAA4-6354-42F4-B136-289874C83416}"/>
+    <hyperlink ref="J120" r:id="rId263" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance/R" xr:uid="{EF3724D7-E85E-4475-8F24-25A59BA401C3}"/>
+    <hyperlink ref="A121" r:id="rId264" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{656A058E-085D-458E-8628-285438263040}"/>
+    <hyperlink ref="A122" r:id="rId265" tooltip="VETravelPerformance" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETravelPerformance" xr:uid="{A827F085-D465-4BD9-8940-3DABC0BD4EB0}"/>
+    <hyperlink ref="J122" r:id="rId266" xr:uid="{3241C91E-DCE2-48CB-8B0D-68DF3CF2D41C}"/>
+    <hyperlink ref="J124" r:id="rId267" xr:uid="{46148D67-B59F-46A9-A036-2F91726314E9}"/>
+    <hyperlink ref="A125" r:id="rId268" tooltip="VEScenario" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEScenario" xr:uid="{5CE5EEB9-BEF6-4214-96C7-D77E6E136E6B}"/>
+    <hyperlink ref="J125" r:id="rId269" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VEScenario/R" xr:uid="{F8E70722-AA5D-4427-96C7-A9C1688CE598}"/>
     <hyperlink ref="H62" r:id="rId270" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VELandUse/inst/module_docs/AssignCarSvcAvailability.md" xr:uid="{782A0853-3A8B-4FCF-9941-3FBCE85538CF}"/>
     <hyperlink ref="J63" r:id="rId271" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VELandUse/R/AssignDemandManagement.R" xr:uid="{4215CB18-C694-46D5-A8E2-E9DFAA726898}"/>
     <hyperlink ref="M63" r:id="rId272" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VELandUse/data/AssignDemandManagementSpecifications.rda" xr:uid="{892C1667-6C19-4485-83E7-C580B9487A1C}"/>
-    <hyperlink ref="A77" r:id="rId273" tooltip="VETransportSupplyUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupplyUse" xr:uid="{9C207D9A-5BD1-4EC6-8B86-127CF7012AA7}"/>
-    <hyperlink ref="A76" r:id="rId274" tooltip="VETransportSupply" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupply" xr:uid="{EC1DD098-062D-440F-A1C3-03A958D39D01}"/>
-    <hyperlink ref="A78" r:id="rId275" tooltip="VETransportSupplyUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupplyUse" xr:uid="{72BE8AD1-F9F6-4A92-8245-761C41F741F8}"/>
-    <hyperlink ref="A79" r:id="rId276" tooltip="VETransportSupplyUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupplyUse" xr:uid="{61BA724C-9D7D-4AED-BB52-C013B0A87AFA}"/>
-    <hyperlink ref="C77" r:id="rId277" tooltip="CalculateCongestionBase.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionBase.R" xr:uid="{DE9D0310-2287-4E1D-8870-0DAB28F3B3BF}"/>
-    <hyperlink ref="C78" r:id="rId278" tooltip="CalculateCongestionFuture.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionFuture.R" xr:uid="{1AB8BCEA-164C-434A-AAA8-7D06002307DD}"/>
-    <hyperlink ref="C79" r:id="rId279" tooltip="CalculateCongestionPolicy.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionPolicy.R" xr:uid="{7EC102D8-E616-410A-A676-94A89E66A627}"/>
-    <hyperlink ref="J77" r:id="rId280" tooltip="CalculateCongestionBase.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionBase.R" xr:uid="{DF191564-2378-4120-A304-1C1E541F1AB7}"/>
-    <hyperlink ref="J78" r:id="rId281" tooltip="CalculateCongestionFuture.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionFuture.R" xr:uid="{9EF5C3D4-21CD-4E51-A7AB-344F45C26554}"/>
-    <hyperlink ref="J79" r:id="rId282" tooltip="CalculateCongestionPolicy.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionPolicy.R" xr:uid="{8C2EBA0F-6185-4FE6-B9F9-87362B67A44A}"/>
-    <hyperlink ref="M77" r:id="rId283" tooltip="CalculateCongestionBaseSpecifications.rda" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/data/CalculateCongestionBaseSpecifications.rda" xr:uid="{13C99405-4F9B-41FD-9431-9850AE3C069E}"/>
-    <hyperlink ref="M78" r:id="rId284" tooltip="CalculateCongestionFutureSpecifications.rda" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/data/CalculateCongestionFutureSpecifications.rda" xr:uid="{457F7BDA-1EBD-4A94-AE2B-C978AEE87853}"/>
-    <hyperlink ref="M79" r:id="rId285" tooltip="CalculateCongestionPolicySpecifications.rda" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/data/CalculateCongestionPolicySpecifications.rda" xr:uid="{FDB6FE34-5C07-4D2C-9064-15043EE2E901}"/>
+    <hyperlink ref="A79" r:id="rId273" tooltip="VETransportSupplyUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupplyUse" xr:uid="{9C207D9A-5BD1-4EC6-8B86-127CF7012AA7}"/>
+    <hyperlink ref="A78" r:id="rId274" tooltip="VETransportSupply" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupply" xr:uid="{EC1DD098-062D-440F-A1C3-03A958D39D01}"/>
+    <hyperlink ref="A80" r:id="rId275" tooltip="VETransportSupplyUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupplyUse" xr:uid="{72BE8AD1-F9F6-4A92-8245-761C41F741F8}"/>
+    <hyperlink ref="A81" r:id="rId276" tooltip="VETransportSupplyUse" display="https://github.com/VisionEval/VisionEval/tree/master/sources/modules/VETransportSupplyUse" xr:uid="{61BA724C-9D7D-4AED-BB52-C013B0A87AFA}"/>
+    <hyperlink ref="C79" r:id="rId277" tooltip="CalculateCongestionBase.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionBase.R" xr:uid="{DE9D0310-2287-4E1D-8870-0DAB28F3B3BF}"/>
+    <hyperlink ref="C80" r:id="rId278" tooltip="CalculateCongestionFuture.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionFuture.R" xr:uid="{1AB8BCEA-164C-434A-AAA8-7D06002307DD}"/>
+    <hyperlink ref="C81" r:id="rId279" tooltip="CalculateCongestionPolicy.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionPolicy.R" xr:uid="{7EC102D8-E616-410A-A676-94A89E66A627}"/>
+    <hyperlink ref="J79" r:id="rId280" tooltip="CalculateCongestionBase.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionBase.R" xr:uid="{DF191564-2378-4120-A304-1C1E541F1AB7}"/>
+    <hyperlink ref="J80" r:id="rId281" tooltip="CalculateCongestionFuture.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionFuture.R" xr:uid="{9EF5C3D4-21CD-4E51-A7AB-344F45C26554}"/>
+    <hyperlink ref="J81" r:id="rId282" tooltip="CalculateCongestionPolicy.R" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/R/CalculateCongestionPolicy.R" xr:uid="{8C2EBA0F-6185-4FE6-B9F9-87362B67A44A}"/>
+    <hyperlink ref="M79" r:id="rId283" tooltip="CalculateCongestionBaseSpecifications.rda" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/data/CalculateCongestionBaseSpecifications.rda" xr:uid="{13C99405-4F9B-41FD-9431-9850AE3C069E}"/>
+    <hyperlink ref="M80" r:id="rId284" tooltip="CalculateCongestionFutureSpecifications.rda" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/data/CalculateCongestionFutureSpecifications.rda" xr:uid="{457F7BDA-1EBD-4A94-AE2B-C978AEE87853}"/>
+    <hyperlink ref="M81" r:id="rId285" tooltip="CalculateCongestionPolicySpecifications.rda" display="https://github.com/VisionEval/VisionEval/blob/master/sources/modules/VETransportSupplyUse/data/CalculateCongestionPolicySpecifications.rda" xr:uid="{FDB6FE34-5C07-4D2C-9064-15043EE2E901}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId286"/>
@@ -8227,6 +8454,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C18CD4DEF363E547BE01E072B5C8CADE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66fa1103ebadf93fb5c3fb7fd041298e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91fe26aa-8303-4fe7-b35e-ec0a8764a6d3" xmlns:ns3="2497597c-adfd-4649-bd7b-d6fcec7c1097" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb770262859f62bc96cef340afda770b" ns2:_="" ns3:_="">
     <xsd:import namespace="91fe26aa-8303-4fe7-b35e-ec0a8764a6d3"/>
@@ -8405,12 +8638,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8421,6 +8648,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADADCF8F-7C06-488B-A5B5-CF819D6C6DC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="91fe26aa-8303-4fe7-b35e-ec0a8764a6d3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2497597c-adfd-4649-bd7b-d6fcec7c1097"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCFBCC8E-84E3-4FC9-AC5E-63E74349B4BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8439,23 +8683,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADADCF8F-7C06-488B-A5B5-CF819D6C6DC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2497597c-adfd-4649-bd7b-d6fcec7c1097"/>
-    <ds:schemaRef ds:uri="91fe26aa-8303-4fe7-b35e-ec0a8764a6d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07A176A9-2FBF-48AE-813D-7EBBDDB5C7A5}">
   <ds:schemaRefs>

--- a/user_guide/data/Pooled_Funds_Task4_VE_Estimation.xlsx
+++ b/user_guide/data/Pooled_Funds_Task4_VE_Estimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\VisionEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C0A460-BCE3-4029-AB96-79FF57EE0D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BDE8D4-BD0A-4A3E-9277-EBD803AE4227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC5E4B6D-513C-486A-8409-7B34145AD233}"/>
   </bookViews>
@@ -2794,8 +2794,8 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="5" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8098,13 +8098,13 @@
         <v>26</v>
       </c>
       <c r="I124" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="J124" t="s">
         <v>519</v>
       </c>
       <c r="K124" t="s">
-        <v>23</v>
+        <v>517</v>
       </c>
       <c r="L124" t="s">
         <v>520</v>
@@ -8142,13 +8142,13 @@
         <v>26</v>
       </c>
       <c r="I125" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="J125" t="s">
         <v>526</v>
       </c>
       <c r="K125" t="s">
-        <v>23</v>
+        <v>517</v>
       </c>
       <c r="L125" t="s">
         <v>527</v>
@@ -8454,12 +8454,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C18CD4DEF363E547BE01E072B5C8CADE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66fa1103ebadf93fb5c3fb7fd041298e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="91fe26aa-8303-4fe7-b35e-ec0a8764a6d3" xmlns:ns3="2497597c-adfd-4649-bd7b-d6fcec7c1097" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb770262859f62bc96cef340afda770b" ns2:_="" ns3:_="">
     <xsd:import namespace="91fe26aa-8303-4fe7-b35e-ec0a8764a6d3"/>
@@ -8638,6 +8632,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8648,23 +8648,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADADCF8F-7C06-488B-A5B5-CF819D6C6DC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="91fe26aa-8303-4fe7-b35e-ec0a8764a6d3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2497597c-adfd-4649-bd7b-d6fcec7c1097"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCFBCC8E-84E3-4FC9-AC5E-63E74349B4BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8683,6 +8666,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADADCF8F-7C06-488B-A5B5-CF819D6C6DC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="91fe26aa-8303-4fe7-b35e-ec0a8764a6d3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2497597c-adfd-4649-bd7b-d6fcec7c1097"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07A176A9-2FBF-48AE-813D-7EBBDDB5C7A5}">
   <ds:schemaRefs>
